--- a/Hardware/Lista de Componentes.xlsx
+++ b/Hardware/Lista de Componentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facud\Desktop\Barquidou\Hardware y Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facud\Desktop\ecoboat\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CF2BF-9090-467E-9885-318CDE809D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A9E1D8-BC2B-4961-A844-25EEAB26089E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C88DA92-401E-4C8A-ACCC-17B52FA7B3CA}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t xml:space="preserve">Relay                      </t>
   </si>
   <si>
-    <t>Diodo Zenner 6,8V</t>
-  </si>
-  <si>
     <t>Resistencia 270K</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Potenciometro 100K</t>
+  </si>
+  <si>
+    <t>Diodo Zenner 2,3V</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,12 +656,12 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -670,7 +670,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -679,7 +679,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
@@ -715,7 +715,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
@@ -751,7 +751,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
@@ -760,7 +760,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
@@ -769,7 +769,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5">
@@ -778,7 +778,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
@@ -787,16 +787,16 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5">
@@ -805,7 +805,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="5">

--- a/Hardware/Lista de Componentes.xlsx
+++ b/Hardware/Lista de Componentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facud\Desktop\ecoboat\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A9E1D8-BC2B-4961-A844-25EEAB26089E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DCD1B3-D602-4BAC-B014-09184F6F5506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C88DA92-401E-4C8A-ACCC-17B52FA7B3CA}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>Potenciometro 100K</t>
   </si>
   <si>
-    <t>Diodo Zenner 2,3V</t>
+    <t>Resistencia 1,2K</t>
   </si>
 </sst>
 </file>
@@ -513,12 +513,12 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -614,7 +614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -641,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -668,146 +668,146 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="5">
         <v>1</v>
       </c>

--- a/Hardware/Lista de Componentes.xlsx
+++ b/Hardware/Lista de Componentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facud\Desktop\ecoboat\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DCD1B3-D602-4BAC-B014-09184F6F5506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE439ED-7F63-4B3B-B1A7-B1B198217755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C88DA92-401E-4C8A-ACCC-17B52FA7B3CA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Cantidad</t>
   </si>
@@ -130,6 +130,144 @@
   </si>
   <si>
     <t>Resistencia 1,2K</t>
+  </si>
+  <si>
+    <t>Placa de Cobre 20x15</t>
+  </si>
+  <si>
+    <t>Molex Macho 2 Pines</t>
+  </si>
+  <si>
+    <t>Molex Macho 3 Pines</t>
+  </si>
+  <si>
+    <t>Molex Macho 4 Pines</t>
+  </si>
+  <si>
+    <t>Molex Hemra 2 Pines</t>
+  </si>
+  <si>
+    <t>Molex Hembra 3 Pines</t>
+  </si>
+  <si>
+    <t>Molex Hembra 4 Pines</t>
+  </si>
+  <si>
+    <t>Molex Macho 6 Pines</t>
+  </si>
+  <si>
+    <t>Molex Hembra 6 Pines</t>
+  </si>
+  <si>
+    <t>Molex Macho 7 Pines</t>
+  </si>
+  <si>
+    <t>Molex Hembra 7 Pines</t>
+  </si>
+  <si>
+    <t>Molex Macho 8 Pines</t>
+  </si>
+  <si>
+    <t>Molex Hembra 8 Pines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                            </t>
+  </si>
+  <si>
+    <t>Conectores para Molex</t>
+  </si>
+  <si>
+    <t>(Son 60 pero siempre se rompen estos cositos de mierda)</t>
+  </si>
+  <si>
+    <t>Bornera 5 Pines</t>
+  </si>
+  <si>
+    <t>Bornera 4 Pines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                           </t>
+  </si>
+  <si>
+    <t>MOSFET IRF9530</t>
+  </si>
+  <si>
+    <t>MOSFET IRF640</t>
+  </si>
+  <si>
+    <t>Transistores BJT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                      </t>
+  </si>
+  <si>
+    <t>Resistencia 220</t>
+  </si>
+  <si>
+    <t>Resistencia 10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodo                   </t>
+  </si>
+  <si>
+    <t>Diodo Zener 12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodo LED        </t>
+  </si>
+  <si>
+    <t>Fusible 10A???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM7805            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operacional  </t>
+  </si>
+  <si>
+    <t>Conectores para Rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preset 200K    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preset 500K    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                          </t>
+  </si>
+  <si>
+    <t>Termocontraible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNL2003         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP3008        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74HC237           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LS151           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACS712              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulo RF       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batería                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel Solar       </t>
   </si>
 </sst>
 </file>
@@ -152,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +340,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,15 +659,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DA55D1-5F27-41E3-9F8B-214F9EB26629}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,8 +675,15 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -535,8 +691,11 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -547,8 +706,14 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -559,8 +724,14 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -568,8 +739,11 @@
       <c r="C5" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -577,8 +751,14 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -586,8 +766,14 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -595,8 +781,14 @@
       <c r="C8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -604,8 +796,14 @@
       <c r="C9" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -613,8 +811,14 @@
       <c r="C10" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -622,8 +826,14 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -631,8 +841,14 @@
       <c r="C12" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -640,8 +856,14 @@
       <c r="C13" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -649,8 +871,14 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -658,8 +886,14 @@
       <c r="C15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -667,8 +901,14 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -676,8 +916,14 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -685,8 +931,17 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="7">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -694,8 +949,14 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -703,8 +964,11 @@
       <c r="C20" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -712,8 +976,11 @@
       <c r="C21" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -721,8 +988,14 @@
       <c r="C22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -730,8 +1003,14 @@
       <c r="C23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
@@ -739,8 +1018,14 @@
       <c r="C24" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -748,8 +1033,11 @@
       <c r="C25" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -757,8 +1045,14 @@
       <c r="C26" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -766,8 +1060,14 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -775,8 +1075,14 @@
       <c r="C28" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -784,8 +1090,11 @@
       <c r="C29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -793,8 +1102,14 @@
       <c r="C30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -802,13 +1117,208 @@
       <c r="C31" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56" s="7">
         <v>1</v>
       </c>
     </row>
